--- a/VTM/Tasks_Sample.xlsx
+++ b/VTM/Tasks_Sample.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VBV MTP NEW\My_New\Code\Final\preprocessData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DD4A35-305B-45A9-B90C-AE4422DBAED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1350" windowWidth="14400" windowHeight="7360" xr2:uid="{42AE1FC5-DDF6-48A3-A7DF-79D9B7516446}"/>
+    <workbookView xWindow="4800" yWindow="1350" windowWidth="14400" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -57,20 +51,20 @@
     <t>t6</t>
   </si>
   <si>
-    <t>photography,content writing,planning knowledge</t>
-  </si>
-  <si>
-    <t>food critic,nutritionist,interviewing</t>
-  </si>
-  <si>
-    <t>photography,content writing,sports enthusiast</t>
+    <t>photography,cartography,planning knowledge</t>
+  </si>
+  <si>
+    <t>food critic,nutritionist,chef</t>
+  </si>
+  <si>
+    <t>photography,cartography,sports enthusiast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -222,7 +216,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -416,26 +410,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF1F85B-EF97-46D7-8CCC-5D73A2D64547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.36328125" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -463,7 +457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -477,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -491,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -505,7 +499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -519,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
